--- a/single-construction-excelize/src/usecase/Book1.xlsx
+++ b/single-construction-excelize/src/usecase/Book1.xlsx
@@ -2614,7 +2614,7 @@
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="9" t="str">
-        <v>Dr. Eliane Armstrong</v>
+        <v>Dr. Gregoria Zulauf</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="AJ2" s="12"/>
       <c r="AK2" s="30" t="str">
-        <v>2020/04/09 03:24:07</v>
+        <v>2020/04/09 17:04:08</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="7"/>
@@ -19251,22 +19251,22 @@
     </row>
     <row customHeight="true" ht="20" r="8" spans="1:16377">
       <c r="D8" s="20" t="str">
-        <v>Dr. Octavia Kunze</v>
+        <v>Ms. Loma Dooley</v>
       </c>
       <c r="E8" s="13" t="str">
-        <v>03:24</v>
+        <v>17:04</v>
       </c>
       <c r="F8" s="14" t="str">
-        <v>03:24</v>
+        <v>17:04</v>
       </c>
       <c r="G8" s="23" t="str">
-        <v>Accusantium perferendis consequatur sit voluptatem aut.</v>
+        <v>Voluptatem aut consequatur perferendis sit accusantium.</v>
       </c>
       <c r="H8" s="27" t="str">
-        <v>Aut consequatur accusantium sit voluptatem perferendis.</v>
+        <v>Sit voluptatem accusantium consequatur perferendis aut.</v>
       </c>
       <c r="I8" s="23" t="str">
-        <v>Aut perferendis sit consequatur accusantium voluptatem.</v>
+        <v>Accusantium aut consequatur perferendis sit voluptatem.</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="14"/>
@@ -19301,22 +19301,22 @@
     </row>
     <row customHeight="true" ht="20" r="9" spans="1:16377">
       <c r="D9" s="21" t="str">
-        <v>Dr. Octavia Kunze</v>
+        <v>Ms. Loma Dooley</v>
       </c>
       <c r="E9" s="15" t="str">
-        <v>03:24</v>
+        <v>17:04</v>
       </c>
       <c r="F9" s="16" t="str">
-        <v>03:24</v>
+        <v>17:04</v>
       </c>
       <c r="G9" s="24" t="str">
-        <v>Accusantium perferendis consequatur sit voluptatem aut.</v>
+        <v>Voluptatem aut consequatur perferendis sit accusantium.</v>
       </c>
       <c r="H9" s="24" t="str">
-        <v>Aut consequatur accusantium sit voluptatem perferendis.</v>
+        <v>Sit voluptatem accusantium consequatur perferendis aut.</v>
       </c>
       <c r="I9" s="24" t="str">
-        <v>Aut perferendis sit consequatur accusantium voluptatem.</v>
+        <v>Accusantium aut consequatur perferendis sit voluptatem.</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="16"/>
@@ -19351,22 +19351,22 @@
     </row>
     <row customHeight="true" ht="20" r="10" spans="1:16377">
       <c r="D10" s="21" t="str">
-        <v>Dr. Octavia Kunze</v>
+        <v>Ms. Loma Dooley</v>
       </c>
       <c r="E10" s="15" t="str">
-        <v>03:24</v>
+        <v>17:04</v>
       </c>
       <c r="F10" s="16" t="str">
-        <v>03:24</v>
+        <v>17:04</v>
       </c>
       <c r="G10" s="24" t="str">
-        <v>Accusantium perferendis consequatur sit voluptatem aut.</v>
+        <v>Voluptatem aut consequatur perferendis sit accusantium.</v>
       </c>
       <c r="H10" s="24" t="str">
-        <v>Aut consequatur accusantium sit voluptatem perferendis.</v>
+        <v>Sit voluptatem accusantium consequatur perferendis aut.</v>
       </c>
       <c r="I10" s="24" t="str">
-        <v>Aut perferendis sit consequatur accusantium voluptatem.</v>
+        <v>Accusantium aut consequatur perferendis sit voluptatem.</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="16"/>
@@ -19401,22 +19401,22 @@
     </row>
     <row customHeight="true" ht="20" r="11" spans="1:16377">
       <c r="D11" s="21" t="str">
-        <v>Dr. Octavia Kunze</v>
+        <v>Ms. Loma Dooley</v>
       </c>
       <c r="E11" s="15" t="str">
-        <v>03:24</v>
+        <v>17:04</v>
       </c>
       <c r="F11" s="16" t="str">
-        <v>03:24</v>
+        <v>17:04</v>
       </c>
       <c r="G11" s="24" t="str">
-        <v>Accusantium perferendis consequatur sit voluptatem aut.</v>
+        <v>Voluptatem aut consequatur perferendis sit accusantium.</v>
       </c>
       <c r="H11" s="24" t="str">
-        <v>Aut consequatur accusantium sit voluptatem perferendis.</v>
+        <v>Sit voluptatem accusantium consequatur perferendis aut.</v>
       </c>
       <c r="I11" s="24" t="str">
-        <v>Aut perferendis sit consequatur accusantium voluptatem.</v>
+        <v>Accusantium aut consequatur perferendis sit voluptatem.</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="16"/>
@@ -19457,22 +19457,22 @@
         <v>10</v>
       </c>
       <c r="D12" s="21" t="str">
-        <v>Dr. Octavia Kunze</v>
+        <v>Ms. Loma Dooley</v>
       </c>
       <c r="E12" s="15" t="str">
-        <v>03:24</v>
+        <v>17:04</v>
       </c>
       <c r="F12" s="16" t="str">
-        <v>03:24</v>
+        <v>17:04</v>
       </c>
       <c r="G12" s="24" t="str">
-        <v>Accusantium perferendis consequatur sit voluptatem aut.</v>
+        <v>Voluptatem aut consequatur perferendis sit accusantium.</v>
       </c>
       <c r="H12" s="24" t="str">
-        <v>Aut consequatur accusantium sit voluptatem perferendis.</v>
+        <v>Sit voluptatem accusantium consequatur perferendis aut.</v>
       </c>
       <c r="I12" s="24" t="str">
-        <v>Aut perferendis sit consequatur accusantium voluptatem.</v>
+        <v>Accusantium aut consequatur perferendis sit voluptatem.</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="16"/>

--- a/single-construction-excelize/src/usecase/Book1.xlsx
+++ b/single-construction-excelize/src/usecase/Book1.xlsx
@@ -2614,7 +2614,7 @@
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="9" t="str">
-        <v>Dr. Gregoria Zulauf</v>
+        <v>Princess Edna Muller</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="AJ2" s="12"/>
       <c r="AK2" s="30" t="str">
-        <v>2020/04/09 17:04:08</v>
+        <v>2020/04/09 17:23:35</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="7"/>
@@ -19251,22 +19251,22 @@
     </row>
     <row customHeight="true" ht="20" r="8" spans="1:16377">
       <c r="D8" s="20" t="str">
-        <v>Ms. Loma Dooley</v>
+        <v>Princess Breanne Grant</v>
       </c>
       <c r="E8" s="13" t="str">
-        <v>17:04</v>
+        <v>17:23</v>
       </c>
       <c r="F8" s="14" t="str">
-        <v>17:04</v>
+        <v>17:23</v>
       </c>
       <c r="G8" s="23" t="str">
-        <v>Voluptatem aut consequatur perferendis sit accusantium.</v>
+        <v>Sit aut consequatur perferendis voluptatem accusantium.</v>
       </c>
       <c r="H8" s="27" t="str">
-        <v>Sit voluptatem accusantium consequatur perferendis aut.</v>
+        <v>Sit accusantium consequatur perferendis aut voluptatem.</v>
       </c>
       <c r="I8" s="23" t="str">
-        <v>Accusantium aut consequatur perferendis sit voluptatem.</v>
+        <v>Accusantium perferendis aut voluptatem consequatur sit.</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="14"/>
@@ -19301,22 +19301,22 @@
     </row>
     <row customHeight="true" ht="20" r="9" spans="1:16377">
       <c r="D9" s="21" t="str">
-        <v>Ms. Loma Dooley</v>
+        <v>Princess Breanne Grant</v>
       </c>
       <c r="E9" s="15" t="str">
-        <v>17:04</v>
+        <v>17:23</v>
       </c>
       <c r="F9" s="16" t="str">
-        <v>17:04</v>
+        <v>17:23</v>
       </c>
       <c r="G9" s="24" t="str">
-        <v>Voluptatem aut consequatur perferendis sit accusantium.</v>
+        <v>Sit aut consequatur perferendis voluptatem accusantium.</v>
       </c>
       <c r="H9" s="24" t="str">
-        <v>Sit voluptatem accusantium consequatur perferendis aut.</v>
+        <v>Sit accusantium consequatur perferendis aut voluptatem.</v>
       </c>
       <c r="I9" s="24" t="str">
-        <v>Accusantium aut consequatur perferendis sit voluptatem.</v>
+        <v>Accusantium perferendis aut voluptatem consequatur sit.</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="16"/>
@@ -19351,22 +19351,22 @@
     </row>
     <row customHeight="true" ht="20" r="10" spans="1:16377">
       <c r="D10" s="21" t="str">
-        <v>Ms. Loma Dooley</v>
+        <v>Princess Breanne Grant</v>
       </c>
       <c r="E10" s="15" t="str">
-        <v>17:04</v>
+        <v>17:23</v>
       </c>
       <c r="F10" s="16" t="str">
-        <v>17:04</v>
+        <v>17:23</v>
       </c>
       <c r="G10" s="24" t="str">
-        <v>Voluptatem aut consequatur perferendis sit accusantium.</v>
+        <v>Sit aut consequatur perferendis voluptatem accusantium.</v>
       </c>
       <c r="H10" s="24" t="str">
-        <v>Sit voluptatem accusantium consequatur perferendis aut.</v>
+        <v>Sit accusantium consequatur perferendis aut voluptatem.</v>
       </c>
       <c r="I10" s="24" t="str">
-        <v>Accusantium aut consequatur perferendis sit voluptatem.</v>
+        <v>Accusantium perferendis aut voluptatem consequatur sit.</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="16"/>
@@ -19401,22 +19401,22 @@
     </row>
     <row customHeight="true" ht="20" r="11" spans="1:16377">
       <c r="D11" s="21" t="str">
-        <v>Ms. Loma Dooley</v>
+        <v>Princess Breanne Grant</v>
       </c>
       <c r="E11" s="15" t="str">
-        <v>17:04</v>
+        <v>17:23</v>
       </c>
       <c r="F11" s="16" t="str">
-        <v>17:04</v>
+        <v>17:23</v>
       </c>
       <c r="G11" s="24" t="str">
-        <v>Voluptatem aut consequatur perferendis sit accusantium.</v>
+        <v>Sit aut consequatur perferendis voluptatem accusantium.</v>
       </c>
       <c r="H11" s="24" t="str">
-        <v>Sit voluptatem accusantium consequatur perferendis aut.</v>
+        <v>Sit accusantium consequatur perferendis aut voluptatem.</v>
       </c>
       <c r="I11" s="24" t="str">
-        <v>Accusantium aut consequatur perferendis sit voluptatem.</v>
+        <v>Accusantium perferendis aut voluptatem consequatur sit.</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="16"/>
@@ -19457,22 +19457,22 @@
         <v>10</v>
       </c>
       <c r="D12" s="21" t="str">
-        <v>Ms. Loma Dooley</v>
+        <v>Princess Breanne Grant</v>
       </c>
       <c r="E12" s="15" t="str">
-        <v>17:04</v>
+        <v>17:23</v>
       </c>
       <c r="F12" s="16" t="str">
-        <v>17:04</v>
+        <v>17:23</v>
       </c>
       <c r="G12" s="24" t="str">
-        <v>Voluptatem aut consequatur perferendis sit accusantium.</v>
+        <v>Sit aut consequatur perferendis voluptatem accusantium.</v>
       </c>
       <c r="H12" s="24" t="str">
-        <v>Sit voluptatem accusantium consequatur perferendis aut.</v>
+        <v>Sit accusantium consequatur perferendis aut voluptatem.</v>
       </c>
       <c r="I12" s="24" t="str">
-        <v>Accusantium aut consequatur perferendis sit voluptatem.</v>
+        <v>Accusantium perferendis aut voluptatem consequatur sit.</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="16"/>
